--- a/Mouse Settings_1.xlsx
+++ b/Mouse Settings_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="0" windowWidth="2475" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,11 +114,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N24"/>
+  <dimension ref="B1:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,45 +439,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="G1" s="3" t="s">
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
       <c r="L1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="L2" t="s">
@@ -501,6 +501,10 @@
       <c r="I3">
         <v>29.795000000000002</v>
       </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J16" si="0">360/(0.022*G3*H3)</f>
+        <v>11.730314960629922</v>
+      </c>
       <c r="L3" t="s">
         <v>3</v>
       </c>
@@ -512,150 +516,1023 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H4" t="e">
-        <f t="shared" ref="H4:H24" si="0">(360*2.54)/(0.022*G4)/I4</f>
-        <v>#DIV/0!</v>
+      <c r="B4">
+        <v>1600</v>
+      </c>
+      <c r="C4">
+        <v>0.79030339900000002</v>
+      </c>
+      <c r="D4">
+        <f>(360*2.54)/(0.022*B4*C4)</f>
+        <v>32.870000002711272</v>
+      </c>
+      <c r="E4">
+        <f>360/(0.022*B4*C4)</f>
+        <v>12.940944882957195</v>
+      </c>
+      <c r="G4">
+        <v>900</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H41" si="1">(360*2.54)/(0.022*G4)/I4</f>
+        <v>1.5499855070252788</v>
+      </c>
+      <c r="I4">
+        <v>29.795000000000002</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="0"/>
+        <v>11.730314960629922</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1600</v>
+      </c>
+      <c r="C5">
+        <v>0.97618499999999997</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:D41" si="2">(360*2.54)/(0.022*B5*C5)</f>
+        <v>26.611014026309284</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E41" si="3">360/(0.022*B5*C5)</f>
+        <v>10.476777175712318</v>
+      </c>
       <c r="H5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5">
+        <v>29.795000000000002</v>
+      </c>
+      <c r="J5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M5" s="1"/>
+      <c r="M5" s="3"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H6" t="e">
+      <c r="B6">
+        <v>1600</v>
+      </c>
+      <c r="C6">
+        <v>0.79030339900000002</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>32.870000002711272</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>12.940944882957195</v>
+      </c>
+      <c r="G6">
+        <v>1600</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>1.6499792128603106</v>
+      </c>
+      <c r="I6">
+        <v>15.744</v>
+      </c>
+      <c r="J6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" s="1" t="s">
+        <v>6.1984251968503941</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="1"/>
+      <c r="M6" s="3"/>
       <c r="N6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H7" t="e">
+      <c r="B7">
+        <v>1280</v>
+      </c>
+      <c r="C7">
+        <v>1.10372439</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>29.420017536344297</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>11.58268406942689</v>
+      </c>
+      <c r="G7">
+        <v>1600</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>1.1037243899566425</v>
+      </c>
+      <c r="I7">
+        <v>23.53601403</v>
+      </c>
+      <c r="J7">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" s="1" t="s">
+        <v>9.266147255905512</v>
+      </c>
+      <c r="L7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="1"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H8" t="e">
+      <c r="B8">
+        <v>1600</v>
+      </c>
+      <c r="C8">
+        <v>1.30158</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>19.958260519731965</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>7.8575828817842384</v>
+      </c>
+      <c r="G8">
+        <v>1600</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="1"/>
+        <v>0.88297951200000002</v>
+      </c>
+      <c r="I8">
+        <v>29.420017536344297</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="1" t="s">
+        <v>11.58268406942689</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M8" s="1"/>
+      <c r="M8" s="3"/>
       <c r="N8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H9" t="e">
+      <c r="B9">
+        <v>1600</v>
+      </c>
+      <c r="C9">
+        <v>1.6499792129999999</v>
+      </c>
+      <c r="D9">
+        <f>(360*2.54)/(0.022*B9*C9)</f>
+        <v>15.743999998667093</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>6.1984251963256272</v>
+      </c>
+      <c r="G9">
+        <v>1600</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.6499792128603106</v>
+      </c>
+      <c r="I9">
+        <v>15.744</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>6.1984251968503941</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H10" t="e">
+      <c r="B10">
+        <v>800</v>
+      </c>
+      <c r="C10">
+        <v>3.4</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>15.280748663101607</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>6.0160427807486645</v>
+      </c>
+      <c r="G10">
+        <v>1600</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="1"/>
+        <v>0.87186684770171941</v>
+      </c>
+      <c r="I10">
+        <v>29.795000000000002</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>11.730314960629922</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H11" t="e">
+      <c r="B11">
+        <v>1600</v>
+      </c>
+      <c r="C11">
+        <v>1.7</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>15.280748663101607</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>6.0160427807486645</v>
+      </c>
+      <c r="G11">
+        <v>1600</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>1.9374457582989806</v>
+      </c>
+      <c r="I11">
+        <v>13.407999999999999</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>5.2787401574803141</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H12" t="e">
+      <c r="B12">
+        <v>900</v>
+      </c>
+      <c r="C12">
+        <v>1.55</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>29.794721407624635</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>11.730205278592376</v>
+      </c>
+      <c r="G12">
+        <v>1600</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="I12">
+        <v>15.280748663101607</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>6.0160427807486645</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H13" t="e">
+      <c r="B13">
+        <v>800</v>
+      </c>
+      <c r="C13">
+        <v>3.4</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>15.280748663101607</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>6.0160427807486645</v>
+      </c>
+      <c r="G13">
+        <v>1600</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="1"/>
+        <v>0.87187500000000007</v>
+      </c>
+      <c r="I13">
+        <v>29.794721407624635</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>11.730205278592376</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H14" t="e">
+      <c r="B14">
+        <v>1200</v>
+      </c>
+      <c r="C14">
+        <v>0.9</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>38.484848484848484</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>15.151515151515152</v>
+      </c>
+      <c r="G14">
+        <v>1600</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>1.7</v>
+      </c>
+      <c r="I14">
+        <v>15.280748663101607</v>
+      </c>
+      <c r="J14">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>6.0160427807486645</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H15" t="e">
+      <c r="B15">
+        <v>1600</v>
+      </c>
+      <c r="C15">
+        <v>0.9</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>28.863636363636367</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>11.363636363636365</v>
+      </c>
+      <c r="G15">
+        <v>1600</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>1.125</v>
+      </c>
+      <c r="I15">
+        <v>23.090909090909093</v>
+      </c>
+      <c r="J15">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>9.0909090909090917</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="H16" t="e">
+      <c r="B16">
+        <v>800</v>
+      </c>
+      <c r="C16">
+        <v>3.4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>15.280748663101607</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>6.0160427807486645</v>
+      </c>
+      <c r="G16">
+        <v>800</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>1.731733696</v>
+      </c>
+      <c r="I16">
+        <v>30.001463605259467</v>
+      </c>
+      <c r="J16">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H17" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H18" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H19" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H20" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H21" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H22" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H23" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.25">
-      <c r="H24" t="e">
-        <f t="shared" si="0"/>
+        <v>11.811599844590342</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>1600</v>
+      </c>
+      <c r="C17">
+        <v>0.86586684800000002</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>30.001463605259467</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>11.811599844590342</v>
+      </c>
+      <c r="G17">
+        <v>800</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>1.29375</v>
+      </c>
+      <c r="I17">
+        <v>40.158102766798422</v>
+      </c>
+      <c r="J17">
+        <f>360/(0.022*G17*H17)</f>
+        <v>15.8102766798419</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>400</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>17.31818181818182</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>6.8181818181818183</v>
+      </c>
+      <c r="G18">
+        <v>400</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>2.5874999999999999</v>
+      </c>
+      <c r="I18">
+        <v>40.158102766798422</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J41" si="4">360/(0.022*G18*H18)</f>
+        <v>15.8102766798419</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>800</v>
+      </c>
+      <c r="C19">
+        <v>0.87</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>59.717868338557999</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>23.51097178683386</v>
+      </c>
+      <c r="G19">
+        <v>800</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="1"/>
+        <v>1.731733696</v>
+      </c>
+      <c r="I19">
+        <v>30.001463605259467</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>11.811599844590342</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1600</v>
+      </c>
+      <c r="C20">
+        <v>0.86586684800000002</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>30.001463605259467</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>11.811599844590342</v>
+      </c>
+      <c r="G20">
+        <v>400</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="1"/>
+        <v>3.4634673920000001</v>
+      </c>
+      <c r="I20">
+        <v>30.001463605259467</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>11.811599844590342</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>1600</v>
+      </c>
+      <c r="C21">
+        <v>1.7</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>15.280748663101607</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>6.0160427807486645</v>
+      </c>
+      <c r="G21">
+        <v>800</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="1"/>
+        <v>1.731733696</v>
+      </c>
+      <c r="I21">
+        <v>30.001463605259467</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>11.811599844590342</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>450</v>
+      </c>
+      <c r="C22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>40.158102766798422</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>15.8102766798419</v>
+      </c>
+      <c r="G22">
+        <v>400</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="I22">
+        <v>23.090909090909093</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>800</v>
+      </c>
+      <c r="C23">
+        <v>1.29375</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>40.158102766798422</v>
+      </c>
+      <c r="E23">
+        <f>360/(0.022*B23*C23)</f>
+        <v>15.8102766798419</v>
+      </c>
+      <c r="G23">
+        <v>400</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="1"/>
+        <v>3.4634673920000001</v>
+      </c>
+      <c r="I23">
+        <v>30.001463605259467</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>11.811599844590342</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>800</v>
+      </c>
+      <c r="C24">
+        <v>3.4</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>15.280748663101607</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>6.0160427807486645</v>
+      </c>
+      <c r="G24">
+        <v>400</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="I24">
+        <v>15.743801652892564</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>6.1983471074380176</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>1600</v>
+      </c>
+      <c r="C25">
+        <v>0.86586684800000002</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>30.001463605259467</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>11.811599844590342</v>
+      </c>
+      <c r="H25" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>800</v>
+      </c>
+      <c r="C26">
+        <v>3.4</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>15.280748663101607</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>6.0160427807486645</v>
+      </c>
+      <c r="H26" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>800</v>
+      </c>
+      <c r="C27">
+        <v>2.25</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>23.090909090909093</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>9.0909090909090917</v>
+      </c>
+      <c r="H27" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J27" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>1600</v>
+      </c>
+      <c r="C28">
+        <v>0.86586684800000002</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>30.001463605259467</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>11.811599844590342</v>
+      </c>
+      <c r="H28" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J28" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>400</v>
+      </c>
+      <c r="C29">
+        <v>3.2062499999999998</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>32.408293460925044</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>12.759170653907498</v>
+      </c>
+      <c r="H29" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J29" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>400</v>
+      </c>
+      <c r="C30">
+        <v>3.4634673920000001</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>30.001463605259467</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>11.811599844590342</v>
+      </c>
+      <c r="H30" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J30" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>400</v>
+      </c>
+      <c r="C31">
+        <v>6.8</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>15.280748663101607</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>6.0160427807486645</v>
+      </c>
+      <c r="H31" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J31" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>800</v>
+      </c>
+      <c r="C32">
+        <v>2.5</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>20.781818181818185</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>8.1818181818181834</v>
+      </c>
+      <c r="H32" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J32" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>800</v>
+      </c>
+      <c r="C33">
+        <v>3.3</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>15.743801652892564</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>6.1983471074380176</v>
+      </c>
+      <c r="H33" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J33" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>400</v>
+      </c>
+      <c r="C34">
+        <v>6.8</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>15.280748663101607</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>6.0160427807486645</v>
+      </c>
+      <c r="H34" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J34" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>800</v>
+      </c>
+      <c r="C35">
+        <v>2.21</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>23.508844097079393</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>9.2554504319210213</v>
+      </c>
+      <c r="H35" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J35" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D36" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E36" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H36" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J36" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D37" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E37" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H37" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J37" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D38" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H38" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J38" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D39" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E39" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H39" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J39" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D40" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J40" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D41" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J41" t="e">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>

--- a/Mouse Settings_1.xlsx
+++ b/Mouse Settings_1.xlsx
@@ -1,15 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E0BA4D6-F6D7-4F94-96C7-302157CDE88F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="0" windowWidth="2475" windowHeight="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -70,7 +80,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,6 +222,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -247,6 +274,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -422,11 +466,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,18 +984,18 @@
         <v>11.811599844590342</v>
       </c>
       <c r="G17">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>1.29375</v>
+        <v>0.61850649350649356</v>
       </c>
       <c r="I17">
-        <v>40.158102766798422</v>
+        <v>42</v>
       </c>
       <c r="J17">
         <f>360/(0.022*G17*H17)</f>
-        <v>15.8102766798419</v>
+        <v>16.535433070866141</v>
       </c>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.25">
@@ -1179,13 +1223,19 @@
         <f t="shared" si="3"/>
         <v>11.811599844590342</v>
       </c>
-      <c r="H25" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+      <c r="G25">
+        <v>1600</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="1"/>
+        <v>2.4740259740259742</v>
+      </c>
+      <c r="I25">
+        <v>10.5</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>4.1338582677165352</v>
       </c>
     </row>
     <row r="26" spans="2:10" x14ac:dyDescent="0.25">
@@ -1406,18 +1456,18 @@
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35">
-        <v>800</v>
+        <v>1600</v>
       </c>
       <c r="C35">
-        <v>2.21</v>
+        <v>2.8860000000000001</v>
       </c>
       <c r="D35">
         <f t="shared" si="2"/>
-        <v>23.508844097079393</v>
+        <v>9.0011340011340017</v>
       </c>
       <c r="E35">
         <f t="shared" si="3"/>
-        <v>9.2554504319210213</v>
+        <v>3.5437535437535441</v>
       </c>
       <c r="H35" t="e">
         <f t="shared" si="1"/>
@@ -1429,13 +1479,19 @@
       </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D36" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E36" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+      <c r="B36">
+        <v>1600</v>
+      </c>
+      <c r="C36">
+        <v>1.7</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>15.280748663101607</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>6.0160427807486645</v>
       </c>
       <c r="H36" t="e">
         <f t="shared" si="1"/>

--- a/Mouse Settings_1.xlsx
+++ b/Mouse Settings_1.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24131"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E0BA4D6-F6D7-4F94-96C7-302157CDE88F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15FD76D9-186B-4C9A-8099-382632B66C20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -467,22 +469,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N41"/>
+  <dimension ref="B1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="18.7109375" customWidth="1"/>
-    <col min="7" max="10" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="27.5703125" customWidth="1"/>
-    <col min="14" max="14" width="36.7109375" customWidth="1"/>
+    <col min="2" max="5" width="18.6640625" customWidth="1"/>
+    <col min="7" max="10" width="18.6640625" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="27.5546875" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
@@ -499,7 +501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +536,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="G3">
         <v>1600</v>
       </c>
@@ -559,7 +561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1600</v>
       </c>
@@ -589,7 +591,7 @@
         <v>11.730314960629922</v>
       </c>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>1600</v>
       </c>
@@ -597,11 +599,11 @@
         <v>0.97618499999999997</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D41" si="2">(360*2.54)/(0.022*B5*C5)</f>
+        <f t="shared" ref="D5:D56" si="2">(360*2.54)/(0.022*B5*C5)</f>
         <v>26.611014026309284</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E41" si="3">360/(0.022*B5*C5)</f>
+        <f t="shared" ref="E5:E56" si="3">360/(0.022*B5*C5)</f>
         <v>10.476777175712318</v>
       </c>
       <c r="H5" t="e">
@@ -620,7 +622,7 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1600</v>
       </c>
@@ -657,7 +659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>1280</v>
       </c>
@@ -691,7 +693,7 @@
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>1600</v>
       </c>
@@ -728,7 +730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>1600</v>
       </c>
@@ -758,7 +760,7 @@
         <v>6.1984251968503941</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>800</v>
       </c>
@@ -788,7 +790,7 @@
         <v>11.730314960629922</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>1600</v>
       </c>
@@ -818,7 +820,7 @@
         <v>5.2787401574803141</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>900</v>
       </c>
@@ -848,7 +850,7 @@
         <v>6.0160427807486645</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>800</v>
       </c>
@@ -878,7 +880,7 @@
         <v>11.730205278592376</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>1200</v>
       </c>
@@ -908,7 +910,7 @@
         <v>6.0160427807486645</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>1600</v>
       </c>
@@ -938,7 +940,7 @@
         <v>9.0909090909090917</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>800</v>
       </c>
@@ -968,7 +970,7 @@
         <v>11.811599844590342</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>1600</v>
       </c>
@@ -998,7 +1000,7 @@
         <v>16.535433070866141</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>400</v>
       </c>
@@ -1028,7 +1030,7 @@
         <v>15.8102766798419</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>800</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>11.811599844590342</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>1600</v>
       </c>
@@ -1088,7 +1090,7 @@
         <v>11.811599844590342</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>1600</v>
       </c>
@@ -1118,7 +1120,7 @@
         <v>11.811599844590342</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>450</v>
       </c>
@@ -1148,7 +1150,7 @@
         <v>9.0909090909090917</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>800</v>
       </c>
@@ -1178,7 +1180,7 @@
         <v>11.811599844590342</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>800</v>
       </c>
@@ -1208,7 +1210,7 @@
         <v>6.1983471074380176</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>1600</v>
       </c>
@@ -1238,7 +1240,7 @@
         <v>4.1338582677165352</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>800</v>
       </c>
@@ -1253,16 +1255,22 @@
         <f t="shared" si="3"/>
         <v>6.0160427807486645</v>
       </c>
-      <c r="H26" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>1600</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="1"/>
+        <v>1.7500000000000002</v>
+      </c>
+      <c r="I26">
+        <v>14.844155844155845</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>5.8441558441558437</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>800</v>
       </c>
@@ -1286,7 +1294,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>1600</v>
       </c>
@@ -1310,7 +1318,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>400</v>
       </c>
@@ -1334,7 +1342,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>400</v>
       </c>
@@ -1358,7 +1366,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>400</v>
       </c>
@@ -1382,7 +1390,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>800</v>
       </c>
@@ -1406,7 +1414,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>800</v>
       </c>
@@ -1430,7 +1438,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>400</v>
       </c>
@@ -1454,7 +1462,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>1600</v>
       </c>
@@ -1478,7 +1486,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1600</v>
       </c>
@@ -1502,14 +1510,20 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D37" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E37" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37">
+        <v>800</v>
+      </c>
+      <c r="C37">
+        <v>3.5</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>14.844155844155845</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>5.8441558441558445</v>
       </c>
       <c r="H37" t="e">
         <f t="shared" si="1"/>
@@ -1520,14 +1534,20 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D38" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E38" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>800</v>
+      </c>
+      <c r="C38">
+        <v>5</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>10.390909090909092</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>4.0909090909090917</v>
       </c>
       <c r="H38" t="e">
         <f t="shared" si="1"/>
@@ -1538,14 +1558,20 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D39" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E39" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>800</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>5.1954545454545462</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>2.0454545454545459</v>
       </c>
       <c r="H39" t="e">
         <f t="shared" si="1"/>
@@ -1556,7 +1582,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D40" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1574,7 +1600,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D41" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
@@ -1589,6 +1615,156 @@
       </c>
       <c r="J41" t="e">
         <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D42" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E42" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D43" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E43" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D44" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E44" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D45" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E45" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D46" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E46" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D47" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E47" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D48" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E48" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D49" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E49" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D50" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E50" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D51" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E51" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D52" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E52" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D53" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D54" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E54" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D55" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E55" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D56" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E56" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
     </row>
